--- a/GPR/results_f/virtual_samples_ExpSineSquared.xlsx
+++ b/GPR/results_f/virtual_samples_ExpSineSquared.xlsx
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.918130039443011</v>
+        <v>1.918130435851388</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0.25</v>
       </c>
       <c r="C3" t="n">
-        <v>1.676176817186316</v>
+        <v>1.676177261216039</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.993528174836209</v>
+        <v>2.993528359579974</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.75</v>
       </c>
       <c r="C5" t="n">
-        <v>2.674028599083605</v>
+        <v>2.674028846711379</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2.644621515125997</v>
+        <v>2.64462176854273</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.545747676784819</v>
+        <v>1.545747324438368</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>0.25</v>
       </c>
       <c r="C8" t="n">
-        <v>1.308675494152395</v>
+        <v>1.30867513013597</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0.5</v>
       </c>
       <c r="C9" t="n">
-        <v>2.599451551425874</v>
+        <v>2.599451250951452</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0.75</v>
       </c>
       <c r="C10" t="n">
-        <v>2.286397391834193</v>
+        <v>2.286397075949603</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2.257583485580772</v>
+        <v>2.257583168277022</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5140178675544906</v>
+        <v>0.5140183498585755</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>0.25</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2769456500272967</v>
+        <v>0.2769461206609352</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0.5</v>
       </c>
       <c r="C14" t="n">
-        <v>1.567721744498807</v>
+        <v>1.567722278675083</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>0.75</v>
       </c>
       <c r="C15" t="n">
-        <v>1.25466754770909</v>
+        <v>1.254668066474574</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.225853676350442</v>
+        <v>1.225854193697228</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.5259594892343</v>
+        <v>1.525958566663372</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>0.25</v>
       </c>
       <c r="C18" t="n">
-        <v>1.284006257041844</v>
+        <v>1.284005382092043</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>0.5</v>
       </c>
       <c r="C19" t="n">
-        <v>2.601357625275841</v>
+        <v>2.601356491040335</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.75</v>
       </c>
       <c r="C20" t="n">
-        <v>2.281858038939133</v>
+        <v>2.281856967587381</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2.252450964917288</v>
+        <v>2.252449899354715</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0.125</v>
       </c>
       <c r="C22" t="n">
-        <v>1.335036475595869</v>
+        <v>1.33503567304705</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0.125</v>
       </c>
       <c r="C23" t="n">
-        <v>1.482862262141666</v>
+        <v>1.482861430495744</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0.125</v>
       </c>
       <c r="C24" t="n">
-        <v>0.505175238793462</v>
+        <v>0.5051745995824244</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>0.125</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2530463274239432</v>
+        <v>0.2530457378359972</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>0.125</v>
       </c>
       <c r="C26" t="n">
-        <v>2.149545239704239</v>
+        <v>2.149544276840142</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>0.375</v>
       </c>
       <c r="C27" t="n">
-        <v>2.221530569320787</v>
+        <v>2.221530796014166</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>0.375</v>
       </c>
       <c r="C28" t="n">
-        <v>2.366374300349075</v>
+        <v>2.366374534173322</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>0.375</v>
       </c>
       <c r="C29" t="n">
-        <v>1.408410288842961</v>
+        <v>1.408410475507401</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>0.375</v>
       </c>
       <c r="C30" t="n">
-        <v>1.161367728270239</v>
+        <v>1.161367902773843</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>0.375</v>
       </c>
       <c r="C31" t="n">
-        <v>3.019608055342845</v>
+        <v>3.01960832132435</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.625</v>
       </c>
       <c r="C32" t="n">
-        <v>2.845669155193968</v>
+        <v>2.845669300377259</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0.625</v>
       </c>
       <c r="C33" t="n">
-        <v>2.990512895373986</v>
+        <v>2.990513047688262</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0.625</v>
       </c>
       <c r="C34" t="n">
-        <v>2.032548874112732</v>
+        <v>2.032548979267037</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.625</v>
       </c>
       <c r="C35" t="n">
-        <v>1.785506323295143</v>
+        <v>1.785506416288782</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0.625</v>
       </c>
       <c r="C36" t="n">
-        <v>3.64374664121603</v>
+        <v>3.643746825687442</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>0.875</v>
       </c>
       <c r="C37" t="n">
-        <v>2.310617560852807</v>
+        <v>2.310616889179168</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>0.875</v>
       </c>
       <c r="C38" t="n">
-        <v>2.458443354084118</v>
+        <v>2.458442653313449</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>0.875</v>
       </c>
       <c r="C39" t="n">
-        <v>1.480756323610504</v>
+        <v>1.480755815274626</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>0.875</v>
       </c>
       <c r="C40" t="n">
-        <v>1.228627419366394</v>
+        <v>1.228626960653702</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>0.875</v>
       </c>
       <c r="C41" t="n">
-        <v>3.125126324961176</v>
+        <v>3.125125492972258</v>
       </c>
     </row>
   </sheetData>
